--- a/Template.xlsx
+++ b/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mydrive.gsk.com/personal/vaibhav_x_dwivedi_gsk_com/Documents/Desktop/New folder (5)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{BADE90BA-95B8-4B50-B4BD-CFDF0F42D8A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AE5B2DF-2C3B-4B2B-AA7E-8284D4FD57BE}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{BADE90BA-95B8-4B50-B4BD-CFDF0F42D8A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C113143-2FE3-4915-B1FE-0234BA5A9F05}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="8" xr2:uid="{940C4EFF-10B3-40ED-8E90-04F49F23C8C6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{940C4EFF-10B3-40ED-8E90-04F49F23C8C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Japan" sheetId="1" r:id="rId1"/>
@@ -157,9 +157,6 @@
     <t>Bepivirosen (Reimbursement)</t>
   </si>
   <si>
-    <t>Blenrep 100mg</t>
-  </si>
-  <si>
     <t>May'25</t>
   </si>
   <si>
@@ -479,6 +476,9 @@
   </si>
   <si>
     <t>Newzealand</t>
+  </si>
+  <si>
+    <t>Blenrep 100mg vaibhav</t>
   </si>
 </sst>
 </file>
@@ -897,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4270F17F-7681-4DE9-9C26-12EF16834828}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,10 +934,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -949,22 +949,22 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" t="s">
         <v>37</v>
-      </c>
-      <c r="C2" t="s">
-        <v>38</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H2">
         <v>2025</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -981,13 +981,13 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H3">
         <v>2026</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -998,19 +998,19 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H4">
         <v>2026</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1018,22 +1018,22 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H5">
         <v>2026</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1044,19 +1044,19 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H6">
         <v>2026</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1067,19 +1067,19 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H7">
         <v>2027</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1090,19 +1090,19 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H8">
         <v>2027</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1113,19 +1113,19 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H9">
         <v>2028</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1175,10 +1175,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -1192,19 +1192,19 @@
         <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H2">
         <v>2025</v>
       </c>
       <c r="I2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1212,22 +1212,22 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H3">
         <v>2025</v>
       </c>
       <c r="I3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1235,28 +1235,28 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" t="s">
         <v>47</v>
       </c>
-      <c r="C4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" t="s">
-        <v>48</v>
-      </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H4">
         <v>2026</v>
       </c>
       <c r="I4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1267,19 +1267,19 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H5">
         <v>2026</v>
       </c>
       <c r="I5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1290,19 +1290,19 @@
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H6">
         <v>2027</v>
       </c>
       <c r="I6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1310,7 +1310,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7">
         <v>2027</v>
@@ -1322,13 +1322,13 @@
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H7">
         <v>2027</v>
       </c>
       <c r="I7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1339,25 +1339,25 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H8">
         <v>2027</v>
       </c>
       <c r="I8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1365,22 +1365,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H9">
         <v>2027</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1388,22 +1388,22 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H10">
         <v>2026</v>
       </c>
       <c r="I10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1414,25 +1414,25 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" t="s">
         <v>60</v>
       </c>
-      <c r="E11" t="s">
-        <v>101</v>
-      </c>
-      <c r="F11" t="s">
-        <v>61</v>
-      </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H11">
         <v>2027</v>
       </c>
       <c r="I11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1481,10 +1481,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -1498,19 +1498,19 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H2">
         <v>2025</v>
       </c>
       <c r="I2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1521,19 +1521,19 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H3">
         <v>2025</v>
       </c>
       <c r="I3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1544,19 +1544,19 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H4">
         <v>2026</v>
       </c>
       <c r="I4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1567,19 +1567,19 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H5">
         <v>2026</v>
       </c>
       <c r="I5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1627,10 +1627,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -1644,19 +1644,19 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
         <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H2">
         <v>2025</v>
       </c>
       <c r="I2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1667,22 +1667,22 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H3">
         <v>2025</v>
       </c>
       <c r="I3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1693,19 +1693,19 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4">
         <v>2026</v>
       </c>
       <c r="I4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1716,22 +1716,22 @@
         <v>22</v>
       </c>
       <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" t="s">
         <v>64</v>
       </c>
-      <c r="E5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" t="s">
-        <v>65</v>
-      </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H5">
         <v>2026</v>
       </c>
       <c r="I5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1742,19 +1742,19 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H6">
         <v>2027</v>
       </c>
       <c r="I6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1768,16 +1768,16 @@
         <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H7">
         <v>2027</v>
       </c>
       <c r="I7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1785,22 +1785,22 @@
         <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H8">
         <v>2028</v>
       </c>
       <c r="I8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1849,10 +1849,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -1866,19 +1866,19 @@
         <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H2">
         <v>2025</v>
       </c>
       <c r="I2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1889,22 +1889,22 @@
         <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H3">
         <v>2025</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1915,22 +1915,22 @@
         <v>35</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H4">
         <v>2025</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1941,19 +1941,19 @@
         <v>30</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H5">
         <v>2026</v>
       </c>
       <c r="I5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1964,22 +1964,22 @@
         <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="G6" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H6">
         <v>2028</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1990,19 +1990,19 @@
         <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H7">
         <v>2025</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -2013,19 +2013,19 @@
         <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H8">
         <v>2025</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -2033,22 +2033,22 @@
         <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H9">
         <v>2025</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -2056,28 +2056,28 @@
         <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H10">
         <v>2026</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -2088,19 +2088,19 @@
         <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H11">
         <v>2028</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -2111,19 +2111,19 @@
         <v>36</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="G12" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H12">
         <v>2028</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2172,10 +2172,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -2183,281 +2183,281 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" t="s">
         <v>79</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>80</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>81</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>82</v>
-      </c>
-      <c r="G2" t="s">
-        <v>83</v>
       </c>
       <c r="H2">
         <v>2026</v>
       </c>
       <c r="I2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" t="s">
         <v>84</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>85</v>
       </c>
-      <c r="E3" t="s">
-        <v>86</v>
-      </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H3">
         <v>2025</v>
       </c>
       <c r="I3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
         <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4">
         <v>2025</v>
       </c>
       <c r="I4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" t="s">
         <v>87</v>
       </c>
-      <c r="C5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" t="s">
-        <v>88</v>
-      </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H5">
         <v>2025</v>
       </c>
       <c r="I5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" t="s">
         <v>89</v>
       </c>
-      <c r="C6" t="s">
-        <v>90</v>
-      </c>
       <c r="F6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H6">
         <v>2026</v>
       </c>
       <c r="I6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" t="s">
         <v>91</v>
       </c>
-      <c r="C7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" t="s">
-        <v>92</v>
-      </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H7">
         <v>2026</v>
       </c>
       <c r="I7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
         <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H8">
         <v>2027</v>
       </c>
       <c r="I8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H9">
         <v>2027</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H10">
         <v>2028</v>
       </c>
       <c r="I10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H11">
         <v>2026</v>
       </c>
       <c r="I11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H12">
         <v>2027</v>
       </c>
       <c r="I12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" t="s">
         <v>98</v>
       </c>
-      <c r="C13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" t="s">
-        <v>99</v>
-      </c>
       <c r="G13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H13">
         <v>2027</v>
       </c>
       <c r="I13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2506,10 +2506,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -2517,143 +2517,143 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H2">
         <v>2025</v>
       </c>
       <c r="I2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H3">
         <v>2026</v>
       </c>
       <c r="I3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4">
         <v>2027</v>
       </c>
       <c r="I4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" t="s">
         <v>101</v>
       </c>
-      <c r="E5" t="s">
-        <v>102</v>
-      </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H5">
         <v>2026</v>
       </c>
       <c r="I5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
       </c>
       <c r="D6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" t="s">
         <v>104</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>105</v>
       </c>
-      <c r="F6" t="s">
-        <v>106</v>
-      </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H6">
         <v>2027</v>
       </c>
       <c r="I6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -2662,13 +2662,13 @@
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H7">
         <v>2028</v>
       </c>
       <c r="I7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2715,10 +2715,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -2726,106 +2726,106 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H2">
         <v>2025</v>
       </c>
       <c r="I2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" t="s">
         <v>110</v>
       </c>
-      <c r="E3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F3" t="s">
-        <v>111</v>
-      </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H3">
         <v>2026</v>
       </c>
       <c r="I3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" t="s">
         <v>112</v>
       </c>
-      <c r="D4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" t="s">
-        <v>113</v>
-      </c>
       <c r="F4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4">
         <v>2027</v>
       </c>
       <c r="I4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" t="s">
         <v>115</v>
       </c>
-      <c r="E5" t="s">
-        <v>116</v>
-      </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H5">
         <v>2027</v>
       </c>
       <c r="I5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2837,8 +2837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1134303-A1DD-4B18-9883-3555FB00B580}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2874,10 +2874,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -2885,212 +2885,212 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" t="s">
         <v>118</v>
       </c>
-      <c r="C2" t="s">
-        <v>119</v>
-      </c>
       <c r="E2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H2">
         <v>2025</v>
       </c>
       <c r="I2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" t="s">
         <v>120</v>
       </c>
-      <c r="C3" t="s">
-        <v>121</v>
-      </c>
       <c r="E3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H3">
         <v>2026</v>
       </c>
       <c r="I3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E4">
         <v>2026</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4">
         <v>2026</v>
       </c>
       <c r="I4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H5">
         <v>2027</v>
       </c>
       <c r="I5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H6">
         <v>2027</v>
       </c>
       <c r="I6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" t="s">
         <v>127</v>
-      </c>
-      <c r="C7" t="s">
-        <v>128</v>
       </c>
       <c r="E7">
         <v>2027</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H7">
         <v>2027</v>
       </c>
       <c r="I7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E8">
         <v>2027</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H8">
         <v>2027</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H9">
         <v>2027</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C10">
         <v>2026</v>
       </c>
       <c r="E10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H10">
         <v>2027</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
